--- a/Datasett/utleielokaler-i-gjesdal-kommune.xlsx
+++ b/Datasett/utleielokaler-i-gjesdal-kommune.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\oblig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Nord</t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">Bærland grendahus </t>
   </si>
   <si>
-    <t>Bekkeleia 10</t>
-  </si>
-  <si>
     <t>Kommunalt</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t xml:space="preserve">Ålgård bo- og aktivitetssenter </t>
   </si>
   <si>
-    <t>Ole Nielsens vei 20</t>
-  </si>
-  <si>
     <t>6521824.30</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t xml:space="preserve">Gilja bo- og aktivitetssenter </t>
   </si>
   <si>
-    <t>Kroveien 4</t>
-  </si>
-  <si>
     <t>6524618.64</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t xml:space="preserve">Oltedal bo-og aktivitetssenter </t>
   </si>
   <si>
-    <t>Øvre Ustigbakken 2</t>
-  </si>
-  <si>
     <t>6519544.27</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t xml:space="preserve">Westernbyen </t>
   </si>
   <si>
-    <t>Ålgårdslåtten 12</t>
-  </si>
-  <si>
     <t>Privat</t>
   </si>
   <si>
@@ -153,9 +138,6 @@
     <t xml:space="preserve">Stamphuset </t>
   </si>
   <si>
-    <t>Rettedalen 2</t>
-  </si>
-  <si>
     <t>6515872.53</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t xml:space="preserve">Gjesdal skytterhus </t>
   </si>
   <si>
-    <t>Skurvebakkane 6</t>
-  </si>
-  <si>
     <t>6518965.75</t>
   </si>
   <si>
@@ -207,9 +186,6 @@
     <t>Lafthuset</t>
   </si>
   <si>
-    <t>Bygdaveien 186</t>
-  </si>
-  <si>
     <t>6525241.59</t>
   </si>
   <si>
@@ -225,7 +201,31 @@
     <t>Samhald  Oltedal</t>
   </si>
   <si>
-    <t>Bygdaveien 179</t>
+    <t>Bekkeleia</t>
+  </si>
+  <si>
+    <t>Kroveien</t>
+  </si>
+  <si>
+    <t>Ålgårdslåtten</t>
+  </si>
+  <si>
+    <t>Rettedalen</t>
+  </si>
+  <si>
+    <t>Skurvebakkane</t>
+  </si>
+  <si>
+    <t>Bygdaveien</t>
+  </si>
+  <si>
+    <t>nummer</t>
+  </si>
+  <si>
+    <t>Ole Nielsens vei</t>
+  </si>
+  <si>
+    <t>Øvre Ustigbakken</t>
   </si>
 </sst>
 </file>
@@ -1066,13 +1066,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1092,10 +1097,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1112,217 +1120,244 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
-        <v>38</v>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <v>186</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
+      <c r="G11">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
